--- a/BUSCAR EN MAXIMO CARGAS/data/datos.xlsx
+++ b/BUSCAR EN MAXIMO CARGAS/data/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eruhern\Documents\UiPath\BUSCAR EN MAXIMO CARGAS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC1AC3E-CF38-4A74-947E-15075E79A111}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6E2EAE-5EBA-4B5B-BB27-F19DA2BFF13C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-110" windowWidth="19420" windowHeight="14980" activeTab="1" xr2:uid="{8B51D6BE-9F50-4663-859D-D701AB2BE83D}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/BUSCAR EN MAXIMO CARGAS/data/datos.xlsx
+++ b/BUSCAR EN MAXIMO CARGAS/data/datos.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eruhern\Documents\UiPath\BUSCAR EN MAXIMO CARGAS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6E2EAE-5EBA-4B5B-BB27-F19DA2BFF13C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BC9E49-51FE-4F87-A211-8445B5799A16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="19420" windowHeight="14980" activeTab="1" xr2:uid="{8B51D6BE-9F50-4663-859D-D701AB2BE83D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8B51D6BE-9F50-4663-859D-D701AB2BE83D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$B$36</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>OT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>DATO1</t>
   </si>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BEBE62-703C-4EDF-9FCC-A1DE376903C0}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,91 +433,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>5134409</v>
+        <v>5182331</v>
+      </c>
+      <c r="B2">
+        <v>5182331</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>5137021</v>
+        <v>5180424</v>
+      </c>
+      <c r="B3">
+        <v>5180424</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>5134414</v>
+        <v>5180374</v>
+      </c>
+      <c r="B4">
+        <v>5180374</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>5134418</v>
+        <v>5182332</v>
+      </c>
+      <c r="B5">
+        <v>5182332</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5134424</v>
+        <v>5184948</v>
+      </c>
+      <c r="B6">
+        <v>5184948</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>5134508</v>
+        <v>5180443</v>
+      </c>
+      <c r="B7">
+        <v>5180443</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>5129808</v>
+        <v>5182333</v>
+      </c>
+      <c r="B8">
+        <v>5182333</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>5138232</v>
+        <v>5180423</v>
+      </c>
+      <c r="B9">
+        <v>5180423</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>5129825</v>
+        <v>5182335</v>
+      </c>
+      <c r="B10">
+        <v>5182335</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>5134608</v>
+        <v>5180395</v>
+      </c>
+      <c r="B11">
+        <v>5180395</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -525,70 +552,2311 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>5129843</v>
+        <v>5182336</v>
+      </c>
+      <c r="B12">
+        <v>5182336</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>5129875</v>
+        <v>5180402</v>
+      </c>
+      <c r="B13">
+        <v>5180402</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>5138394</v>
+        <v>5182337</v>
+      </c>
+      <c r="B14">
+        <v>5182337</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>5184952</v>
+      </c>
+      <c r="B15">
+        <v>5184952</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>5180425</v>
+      </c>
+      <c r="B16">
+        <v>5180425</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>5182338</v>
+      </c>
+      <c r="B17">
+        <v>5182338</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>5180437</v>
+      </c>
+      <c r="B18">
+        <v>5180437</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>5182339</v>
+      </c>
+      <c r="B19">
+        <v>5182339</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>5180415</v>
+      </c>
+      <c r="B20">
+        <v>5180415</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>5184957</v>
+      </c>
+      <c r="B21">
+        <v>5184957</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>5182340</v>
+      </c>
+      <c r="B22">
+        <v>5182340</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>5180403</v>
+      </c>
+      <c r="B23">
+        <v>5180403</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>5182341</v>
+      </c>
+      <c r="B24">
+        <v>5182341</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>5180407</v>
+      </c>
+      <c r="B25">
+        <v>5180407</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>5182346</v>
+      </c>
+      <c r="B26">
+        <v>5182346</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>5180401</v>
+      </c>
+      <c r="B27">
+        <v>5180401</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>5184960</v>
+      </c>
+      <c r="B28">
+        <v>5184960</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>5182347</v>
+      </c>
+      <c r="B29">
+        <v>5182347</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>5180459</v>
+      </c>
+      <c r="B30">
+        <v>5180459</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>5182348</v>
+      </c>
+      <c r="B31">
+        <v>5182348</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>5180439</v>
+      </c>
+      <c r="B32">
+        <v>5180439</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>5182350</v>
+      </c>
+      <c r="B33">
+        <v>5182350</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>5180432</v>
+      </c>
+      <c r="B34">
+        <v>5180432</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>5182352</v>
+      </c>
+      <c r="B35">
+        <v>5182352</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>5180434</v>
+      </c>
+      <c r="B36">
+        <v>5180434</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>5184966</v>
+      </c>
+      <c r="B37">
+        <v>5184966</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>5182354</v>
+      </c>
+      <c r="B38">
+        <v>5182354</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>5180388</v>
+      </c>
+      <c r="B39">
+        <v>5180388</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>5182356</v>
+      </c>
+      <c r="B40">
+        <v>5182356</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>5180400</v>
+      </c>
+      <c r="B41">
+        <v>5180400</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>5182357</v>
+      </c>
+      <c r="B42">
+        <v>5182357</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>5180393</v>
+      </c>
+      <c r="B43">
+        <v>5180393</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>5182358</v>
+      </c>
+      <c r="B44">
+        <v>5182358</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>5180406</v>
+      </c>
+      <c r="B45">
+        <v>5180406</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>5182359</v>
+      </c>
+      <c r="B46">
+        <v>5182359</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>5180436</v>
+      </c>
+      <c r="B47">
+        <v>5180436</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>5182360</v>
+      </c>
+      <c r="B48">
+        <v>5182360</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>5180373</v>
+      </c>
+      <c r="B49">
+        <v>5180373</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>5182361</v>
+      </c>
+      <c r="B50">
+        <v>5182361</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>5180454</v>
+      </c>
+      <c r="B51">
+        <v>5180454</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>5182362</v>
+      </c>
+      <c r="B52">
+        <v>5182362</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>5180455</v>
+      </c>
+      <c r="B53">
+        <v>5180455</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>5182365</v>
+      </c>
+      <c r="B54">
+        <v>5182365</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>5180433</v>
+      </c>
+      <c r="B55">
+        <v>5180433</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>5182368</v>
+      </c>
+      <c r="B56">
+        <v>5182368</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>5180427</v>
+      </c>
+      <c r="B57">
+        <v>5180427</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>5184977</v>
+      </c>
+      <c r="B58">
+        <v>5184977</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>5182378</v>
+      </c>
+      <c r="B59">
+        <v>5182378</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>5182379</v>
+      </c>
+      <c r="B60">
+        <v>5182379</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>5182380</v>
+      </c>
+      <c r="B61">
+        <v>5182380</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>5182384</v>
+      </c>
+      <c r="B62">
+        <v>5182384</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>5182386</v>
+      </c>
+      <c r="B63">
+        <v>5182386</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>5184980</v>
+      </c>
+      <c r="B64">
+        <v>5184980</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>5182387</v>
+      </c>
+      <c r="B65">
+        <v>5182387</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>5182388</v>
+      </c>
+      <c r="B66">
+        <v>5182388</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>5182391</v>
+      </c>
+      <c r="B67">
+        <v>5182391</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>5182392</v>
+      </c>
+      <c r="B68">
+        <v>5182392</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>5182393</v>
+      </c>
+      <c r="B69">
+        <v>5182393</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>5182265</v>
+      </c>
+      <c r="B70">
+        <v>5182265</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>5182394</v>
+      </c>
+      <c r="B71">
+        <v>5182394</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>5182266</v>
+      </c>
+      <c r="B72">
+        <v>5182266</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>5182395</v>
+      </c>
+      <c r="B73">
+        <v>5182395</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>5182271</v>
+      </c>
+      <c r="B74">
+        <v>5182271</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>5182396</v>
+      </c>
+      <c r="B75">
+        <v>5182396</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>5182272</v>
+      </c>
+      <c r="B76">
+        <v>5182272</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>5182397</v>
+      </c>
+      <c r="B77">
+        <v>5182397</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>5182273</v>
+      </c>
+      <c r="B78">
+        <v>5182273</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>5184986</v>
+      </c>
+      <c r="B79">
+        <v>5184986</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>5180413</v>
+      </c>
+      <c r="B80">
+        <v>5180413</v>
+      </c>
+      <c r="C80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>5182398</v>
+      </c>
+      <c r="B81">
+        <v>5182398</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>5182276</v>
+      </c>
+      <c r="B82">
+        <v>5182276</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>5180399</v>
+      </c>
+      <c r="B83">
+        <v>5180399</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>5182399</v>
+      </c>
+      <c r="B84">
+        <v>5182399</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>5182277</v>
+      </c>
+      <c r="B85">
+        <v>5182277</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>5180372</v>
+      </c>
+      <c r="B86">
+        <v>5180372</v>
+      </c>
+      <c r="C86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>5182400</v>
+      </c>
+      <c r="B87">
+        <v>5182400</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>5182278</v>
+      </c>
+      <c r="B88">
+        <v>5182278</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>5180387</v>
+      </c>
+      <c r="B89">
+        <v>5180387</v>
+      </c>
+      <c r="C89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>5182403</v>
+      </c>
+      <c r="B90">
+        <v>5182403</v>
+      </c>
+      <c r="C90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>5182279</v>
+      </c>
+      <c r="B91">
+        <v>5182279</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>5182404</v>
+      </c>
+      <c r="B92">
+        <v>5182404</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>5180381</v>
+      </c>
+      <c r="B93">
+        <v>5180381</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>5182280</v>
+      </c>
+      <c r="B94">
+        <v>5182280</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>5184844</v>
+      </c>
+      <c r="B95">
+        <v>5184844</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>5182405</v>
+      </c>
+      <c r="B96">
+        <v>5182405</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>5180409</v>
+      </c>
+      <c r="B97">
+        <v>5180409</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>5182281</v>
+      </c>
+      <c r="B98">
+        <v>5182281</v>
+      </c>
+      <c r="C98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>5184848</v>
+      </c>
+      <c r="B99">
+        <v>5184848</v>
+      </c>
+      <c r="C99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>5182407</v>
+      </c>
+      <c r="B100">
+        <v>5182407</v>
+      </c>
+      <c r="C100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>5180418</v>
+      </c>
+      <c r="B101">
+        <v>5180418</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>5182282</v>
+      </c>
+      <c r="B102">
+        <v>5182282</v>
+      </c>
+      <c r="C102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>5182283</v>
+      </c>
+      <c r="B103">
+        <v>5182283</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>5182408</v>
+      </c>
+      <c r="B104">
+        <v>5182408</v>
+      </c>
+      <c r="C104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>5180397</v>
+      </c>
+      <c r="B105">
+        <v>5180397</v>
+      </c>
+      <c r="C105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>5182284</v>
+      </c>
+      <c r="B106">
+        <v>5182284</v>
+      </c>
+      <c r="C106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>5182409</v>
+      </c>
+      <c r="B107">
+        <v>5182409</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>5180386</v>
+      </c>
+      <c r="B108">
+        <v>5180386</v>
+      </c>
+      <c r="C108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>5184854</v>
+      </c>
+      <c r="B109">
+        <v>5184854</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>5182410</v>
+      </c>
+      <c r="B110">
+        <v>5182410</v>
+      </c>
+      <c r="C110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>5182285</v>
+      </c>
+      <c r="B111">
+        <v>5182285</v>
+      </c>
+      <c r="C111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>5180382</v>
+      </c>
+      <c r="B112">
+        <v>5180382</v>
+      </c>
+      <c r="C112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>5182286</v>
+      </c>
+      <c r="B113">
+        <v>5182286</v>
+      </c>
+      <c r="C113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>5182411</v>
+      </c>
+      <c r="B114">
+        <v>5182411</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>5180451</v>
+      </c>
+      <c r="B115">
+        <v>5180451</v>
+      </c>
+      <c r="C115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>5182287</v>
+      </c>
+      <c r="B116">
+        <v>5182287</v>
+      </c>
+      <c r="C116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>5180457</v>
+      </c>
+      <c r="B117">
+        <v>5180457</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>5182412</v>
+      </c>
+      <c r="B118">
+        <v>5182412</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>5180385</v>
+      </c>
+      <c r="B119">
+        <v>5180385</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>5182289</v>
+      </c>
+      <c r="B120">
+        <v>5182289</v>
+      </c>
+      <c r="C120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>5182413</v>
+      </c>
+      <c r="B121">
+        <v>5182413</v>
+      </c>
+      <c r="C121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>5180391</v>
+      </c>
+      <c r="B122">
+        <v>5180391</v>
+      </c>
+      <c r="C122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>5182290</v>
+      </c>
+      <c r="B123">
+        <v>5182290</v>
+      </c>
+      <c r="C123">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>5182414</v>
+      </c>
+      <c r="B124">
+        <v>5182414</v>
+      </c>
+      <c r="C124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>5180392</v>
+      </c>
+      <c r="B125">
+        <v>5180392</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>5182291</v>
+      </c>
+      <c r="B126">
+        <v>5182291</v>
+      </c>
+      <c r="C126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>5182415</v>
+      </c>
+      <c r="B127">
+        <v>5182415</v>
+      </c>
+      <c r="C127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>5180371</v>
+      </c>
+      <c r="B128">
+        <v>5180371</v>
+      </c>
+      <c r="C128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>5182294</v>
+      </c>
+      <c r="B129">
+        <v>5182294</v>
+      </c>
+      <c r="C129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>5182416</v>
+      </c>
+      <c r="B130">
+        <v>5182416</v>
+      </c>
+      <c r="C130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>5180411</v>
+      </c>
+      <c r="B131">
+        <v>5180411</v>
+      </c>
+      <c r="C131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>5182295</v>
+      </c>
+      <c r="B132">
+        <v>5182295</v>
+      </c>
+      <c r="C132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>5182417</v>
+      </c>
+      <c r="B133">
+        <v>5182417</v>
+      </c>
+      <c r="C133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>5182296</v>
+      </c>
+      <c r="B134">
+        <v>5182296</v>
+      </c>
+      <c r="C134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>5180380</v>
+      </c>
+      <c r="B135">
+        <v>5180380</v>
+      </c>
+      <c r="C135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>5182418</v>
+      </c>
+      <c r="B136">
+        <v>5182418</v>
+      </c>
+      <c r="C136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>5182297</v>
+      </c>
+      <c r="B137">
+        <v>5182297</v>
+      </c>
+      <c r="C137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>5180438</v>
+      </c>
+      <c r="B138">
+        <v>5180438</v>
+      </c>
+      <c r="C138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>5182419</v>
+      </c>
+      <c r="B139">
+        <v>5182419</v>
+      </c>
+      <c r="C139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>5180458</v>
+      </c>
+      <c r="B140">
+        <v>5180458</v>
+      </c>
+      <c r="C140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>5182299</v>
+      </c>
+      <c r="B141">
+        <v>5182299</v>
+      </c>
+      <c r="C141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>5182420</v>
+      </c>
+      <c r="B142">
+        <v>5182420</v>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>5180408</v>
+      </c>
+      <c r="B143">
+        <v>5180408</v>
+      </c>
+      <c r="C143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>5182300</v>
+      </c>
+      <c r="B144">
+        <v>5182300</v>
+      </c>
+      <c r="C144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>5182421</v>
+      </c>
+      <c r="B145">
+        <v>5182421</v>
+      </c>
+      <c r="C145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>5182301</v>
+      </c>
+      <c r="B146">
+        <v>5182301</v>
+      </c>
+      <c r="C146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>5180410</v>
+      </c>
+      <c r="B147">
+        <v>5180410</v>
+      </c>
+      <c r="C147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>5182422</v>
+      </c>
+      <c r="B148">
+        <v>5182422</v>
+      </c>
+      <c r="C148">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>5182302</v>
+      </c>
+      <c r="B149">
+        <v>5182302</v>
+      </c>
+      <c r="C149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>5180435</v>
+      </c>
+      <c r="B150">
+        <v>5180435</v>
+      </c>
+      <c r="C150">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>5182423</v>
+      </c>
+      <c r="B151">
+        <v>5182423</v>
+      </c>
+      <c r="C151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>5182303</v>
+      </c>
+      <c r="B152">
+        <v>5182303</v>
+      </c>
+      <c r="C152">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>5180405</v>
+      </c>
+      <c r="B153">
+        <v>5180405</v>
+      </c>
+      <c r="C153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>5182424</v>
+      </c>
+      <c r="B154">
+        <v>5182424</v>
+      </c>
+      <c r="C154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>5182304</v>
+      </c>
+      <c r="B155">
+        <v>5182304</v>
+      </c>
+      <c r="C155">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>5180412</v>
+      </c>
+      <c r="B156">
+        <v>5180412</v>
+      </c>
+      <c r="C156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>5182425</v>
+      </c>
+      <c r="B157">
+        <v>5182425</v>
+      </c>
+      <c r="C157">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>5182305</v>
+      </c>
+      <c r="B158">
+        <v>5182305</v>
+      </c>
+      <c r="C158">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>5180426</v>
+      </c>
+      <c r="B159">
+        <v>5180426</v>
+      </c>
+      <c r="C159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>5182426</v>
+      </c>
+      <c r="B160">
+        <v>5182426</v>
+      </c>
+      <c r="C160">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>5182306</v>
+      </c>
+      <c r="B161">
+        <v>5182306</v>
+      </c>
+      <c r="C161">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>5180416</v>
+      </c>
+      <c r="B162">
+        <v>5180416</v>
+      </c>
+      <c r="C162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>5182427</v>
+      </c>
+      <c r="B163">
+        <v>5182427</v>
+      </c>
+      <c r="C163">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>5182307</v>
+      </c>
+      <c r="B164">
+        <v>5182307</v>
+      </c>
+      <c r="C164">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>5180441</v>
+      </c>
+      <c r="B165">
+        <v>5180441</v>
+      </c>
+      <c r="C165">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>5182428</v>
+      </c>
+      <c r="B166">
+        <v>5182428</v>
+      </c>
+      <c r="C166">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>5182308</v>
+      </c>
+      <c r="B167">
+        <v>5182308</v>
+      </c>
+      <c r="C167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>5180428</v>
+      </c>
+      <c r="B168">
+        <v>5180428</v>
+      </c>
+      <c r="C168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>5182429</v>
+      </c>
+      <c r="B169">
+        <v>5182429</v>
+      </c>
+      <c r="C169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>5182309</v>
+      </c>
+      <c r="B170">
+        <v>5182309</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>5180421</v>
+      </c>
+      <c r="B171">
+        <v>5180421</v>
+      </c>
+      <c r="C171">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>5182430</v>
+      </c>
+      <c r="B172">
+        <v>5182430</v>
+      </c>
+      <c r="C172">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>5182310</v>
+      </c>
+      <c r="B173">
+        <v>5182310</v>
+      </c>
+      <c r="C173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>5180430</v>
+      </c>
+      <c r="B174">
+        <v>5180430</v>
+      </c>
+      <c r="C174">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>5182432</v>
+      </c>
+      <c r="B175">
+        <v>5182432</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>5182311</v>
+      </c>
+      <c r="B176">
+        <v>5182311</v>
+      </c>
+      <c r="C176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>5180442</v>
+      </c>
+      <c r="B177">
+        <v>5180442</v>
+      </c>
+      <c r="C177">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>5182433</v>
+      </c>
+      <c r="B178">
+        <v>5182433</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>5182312</v>
+      </c>
+      <c r="B179">
+        <v>5182312</v>
+      </c>
+      <c r="C179">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>5180422</v>
+      </c>
+      <c r="B180">
+        <v>5180422</v>
+      </c>
+      <c r="C180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>5182434</v>
+      </c>
+      <c r="B181">
+        <v>5182434</v>
+      </c>
+      <c r="C181">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>5182313</v>
+      </c>
+      <c r="B182">
+        <v>5182313</v>
+      </c>
+      <c r="C182">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>5180376</v>
+      </c>
+      <c r="B183">
+        <v>5180376</v>
+      </c>
+      <c r="C183">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>5182435</v>
+      </c>
+      <c r="B184">
+        <v>5182435</v>
+      </c>
+      <c r="C184">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>5182314</v>
+      </c>
+      <c r="B185">
+        <v>5182314</v>
+      </c>
+      <c r="C185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>5180449</v>
+      </c>
+      <c r="B186">
+        <v>5180449</v>
+      </c>
+      <c r="C186">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>5182436</v>
+      </c>
+      <c r="B187">
+        <v>5182436</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>5182315</v>
+      </c>
+      <c r="B188">
+        <v>5182315</v>
+      </c>
+      <c r="C188">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>5180446</v>
+      </c>
+      <c r="B189">
+        <v>5180446</v>
+      </c>
+      <c r="C189">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>5182401</v>
+      </c>
+      <c r="B190">
+        <v>5182401</v>
+      </c>
+      <c r="C190">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>5182316</v>
+      </c>
+      <c r="B191">
+        <v>5182316</v>
+      </c>
+      <c r="C191">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>5180444</v>
+      </c>
+      <c r="B192">
+        <v>5180444</v>
+      </c>
+      <c r="C192">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>5182317</v>
+      </c>
+      <c r="B193">
+        <v>5182317</v>
+      </c>
+      <c r="C193">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>5180420</v>
+      </c>
+      <c r="B194">
+        <v>5180420</v>
+      </c>
+      <c r="C194">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>5182318</v>
+      </c>
+      <c r="B195">
+        <v>5182318</v>
+      </c>
+      <c r="C195">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>5182319</v>
+      </c>
+      <c r="B196">
+        <v>5182319</v>
+      </c>
+      <c r="C196">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>5180394</v>
+      </c>
+      <c r="B197">
+        <v>5180394</v>
+      </c>
+      <c r="C197">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>5182320</v>
+      </c>
+      <c r="B198">
+        <v>5182320</v>
+      </c>
+      <c r="C198">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>5180398</v>
+      </c>
+      <c r="B199">
+        <v>5180398</v>
+      </c>
+      <c r="C199">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>5184941</v>
+      </c>
+      <c r="B200">
+        <v>5184941</v>
+      </c>
+      <c r="C200">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>5180396</v>
+      </c>
+      <c r="B201">
+        <v>5180396</v>
+      </c>
+      <c r="C201">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>5182321</v>
+      </c>
+      <c r="B202">
+        <v>5182321</v>
+      </c>
+      <c r="C202">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>5180384</v>
+      </c>
+      <c r="B203">
+        <v>5180384</v>
+      </c>
+      <c r="C203">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>5182323</v>
+      </c>
+      <c r="B204">
+        <v>5182323</v>
+      </c>
+      <c r="C204">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>5180389</v>
+      </c>
+      <c r="B205">
+        <v>5180389</v>
+      </c>
+      <c r="C205">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>5182326</v>
+      </c>
+      <c r="B206">
+        <v>5182326</v>
+      </c>
+      <c r="C206">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>5184945</v>
+      </c>
+      <c r="B207">
+        <v>5184945</v>
+      </c>
+      <c r="C207">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>5180452</v>
+      </c>
+      <c r="B208">
+        <v>5180452</v>
+      </c>
+      <c r="C208">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>5182327</v>
+      </c>
+      <c r="B209">
+        <v>5182327</v>
+      </c>
+      <c r="C209">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>5180419</v>
+      </c>
+      <c r="B210">
+        <v>5180419</v>
+      </c>
+      <c r="C210">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>5182328</v>
+      </c>
+      <c r="B211">
+        <v>5182328</v>
+      </c>
+      <c r="C211">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>5180390</v>
+      </c>
+      <c r="B212">
+        <v>5180390</v>
+      </c>
+      <c r="C212">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>5182329</v>
+      </c>
+      <c r="B213">
+        <v>5182329</v>
+      </c>
+      <c r="C213">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>5180414</v>
+      </c>
+      <c r="B214">
+        <v>5180414</v>
+      </c>
+      <c r="C214">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>5180375</v>
+      </c>
+      <c r="B215">
+        <v>5180375</v>
+      </c>
+      <c r="C215">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>5231895</v>
+      </c>
+      <c r="B216">
+        <v>5231895</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0DE604-C69A-41D3-BF4A-A25B2D89289E}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>5134409</v>
-      </c>
-      <c r="B1" s="1">
-        <v>8</v>
+        <v>5179840</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>5137021</v>
+        <v>5179872</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>5134414</v>
+        <v>5179885</v>
       </c>
       <c r="B3" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>5134418</v>
+        <v>5179953</v>
       </c>
       <c r="B4" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>5134424</v>
+        <v>5179847</v>
       </c>
       <c r="B5" s="1">
         <v>8</v>
@@ -596,15 +2864,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5134508</v>
+        <v>5179850</v>
       </c>
       <c r="B6" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>5129808</v>
+        <v>5179860</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -612,15 +2880,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>5138232</v>
-      </c>
-      <c r="B8" s="2">
+        <v>5179863</v>
+      </c>
+      <c r="B8" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>5129825</v>
+        <v>5179865</v>
       </c>
       <c r="B9" s="2">
         <v>6</v>
@@ -628,33 +2896,217 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>5134608</v>
+        <v>5179868</v>
       </c>
       <c r="B10" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>5129843</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
+        <v>5179872</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>5129875</v>
+        <v>5179875</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>5138394</v>
+        <v>5179877</v>
       </c>
       <c r="B13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>5179879</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>5179881</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>5179883</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>5179885</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>5179890</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>5179894</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>5179897</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>5179899</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>5179901</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>5179903</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>5179907</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>5179910</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>5179913</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>5179916</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>5179918</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>5179933</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>5179936</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>5179942</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>5179944</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>5179951</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>5179953</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>5179955</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>5179960</v>
+      </c>
+      <c r="B36">
         <v>6</v>
       </c>
     </row>
